--- a/data/ess_sizing_data_dictionary_v13_dc_autofit.xlsx
+++ b/data/ess_sizing_data_dictionary_v13_dc_autofit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyHackingTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CALB_SizingTool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E902B1A-EA09-46FB-A0D7-221B7F9DAD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D354004B-C1CF-4010-AFD9-FF1F5F7C2746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="464">
   <si>
     <t>Enable</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>dod_pct</t>
-  </si>
-  <si>
-    <t>97%</t>
   </si>
   <si>
     <t>放电深度 DOD</t>
@@ -1511,7 +1508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1520,6 +1517,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1737,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2385,14 +2383,14 @@
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>98</v>
+      <c r="F25" s="4">
+        <v>0.95</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2403,10 +2401,10 @@
         <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
@@ -2418,7 +2416,7 @@
         <v>17</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2429,10 +2427,10 @@
         <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>93</v>
@@ -2444,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2455,10 +2453,10 @@
         <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>93</v>
@@ -2470,7 +2468,7 @@
         <v>17</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2481,10 +2479,10 @@
         <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>93</v>
@@ -2496,7 +2494,7 @@
         <v>17</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2504,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>93</v>
@@ -2519,7 +2517,7 @@
         <v>17</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2527,13 +2525,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>93</v>
@@ -2542,7 +2540,7 @@
         <v>17</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2550,13 +2548,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>93</v>
@@ -2565,7 +2563,7 @@
         <v>17</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2573,13 +2571,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>93</v>
@@ -2588,7 +2586,7 @@
         <v>17</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2596,13 +2594,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>93</v>
@@ -2611,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3617,156 +3615,156 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4776,25 +4774,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4805,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D2" s="2">
         <v>365</v>
@@ -4817,7 +4815,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4828,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D3" s="2">
         <v>540</v>
@@ -4840,7 +4838,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4851,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" s="2">
         <v>730</v>
@@ -4863,7 +4861,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4874,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5" s="2">
         <v>365</v>
@@ -4886,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4897,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D6" s="2">
         <v>540</v>
@@ -4909,7 +4907,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4920,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D7" s="2">
         <v>730</v>
@@ -4932,7 +4930,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4943,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D8" s="2">
         <v>365</v>
@@ -4955,7 +4953,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4966,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D9" s="2">
         <v>540</v>
@@ -4978,7 +4976,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -4989,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D10" s="2">
         <v>730</v>
@@ -5001,7 +4999,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -5012,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D11" s="2">
         <v>365</v>
@@ -5024,7 +5022,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -5035,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D12" s="2">
         <v>540</v>
@@ -5047,7 +5045,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -5058,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" s="2">
         <v>730</v>
@@ -5070,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6078,19 +6076,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -10172,22 +10170,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -10198,13 +10196,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E2" s="2">
         <v>0.25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -10215,13 +10213,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E3" s="2">
         <v>0.33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -10232,13 +10230,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11245,19 +11243,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -12834,7 +12832,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -12875,7 +12873,7 @@
     </row>
     <row r="2" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="2">
         <v>0.25</v>
@@ -12916,7 +12914,7 @@
     </row>
     <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="2">
         <v>365</v>
@@ -14594,21 +14592,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="2">
         <v>0.94799999999999995</v>
@@ -14622,7 +14620,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" s="2">
         <v>0.94702145839562535</v>
@@ -14636,7 +14634,7 @@
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="2">
         <v>0.94607016012205314</v>
@@ -14650,7 +14648,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" s="2">
         <v>0.94517277732471749</v>
@@ -14664,7 +14662,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" s="2">
         <v>0.94431008128080207</v>
@@ -14678,7 +14676,7 @@
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" s="2">
         <v>0.94347251060973236</v>
@@ -14692,7 +14690,7 @@
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" s="2">
         <v>0.94265440359106678</v>
@@ -14706,7 +14704,7 @@
     </row>
     <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9" s="2">
         <v>0.9418520441828051</v>
@@ -14720,7 +14718,7 @@
     </row>
     <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B10" s="2">
         <v>0.94106281908942946</v>
@@ -14734,7 +14732,7 @@
     </row>
     <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" s="2">
         <v>0.940284795818493</v>
@@ -14748,7 +14746,7 @@
     </row>
     <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B12" s="2">
         <v>0.9395164884644196</v>
@@ -14762,7 +14760,7 @@
     </row>
     <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B13" s="2">
         <v>0.9387817171277274</v>
@@ -14776,7 +14774,7 @@
     </row>
     <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B14" s="2">
         <v>0.93811796218724985</v>
@@ -14790,7 +14788,7 @@
     </row>
     <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B15" s="2">
         <v>0.93748908221647587</v>
@@ -14804,7 +14802,7 @@
     </row>
     <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B16" s="2">
         <v>0.93688471248653538</v>
@@ -14818,7 +14816,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B17" s="2">
         <v>0.93629078926818698</v>
@@ -14832,7 +14830,7 @@
     </row>
     <row r="18" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B18" s="2">
         <v>0.93569674342591536</v>
@@ -15873,25 +15871,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -15899,10 +15897,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D2" s="2">
         <v>314</v>
@@ -15922,10 +15920,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" s="2">
         <v>314</v>
@@ -15945,10 +15943,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4" s="2">
         <v>588</v>
@@ -15968,10 +15966,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" s="2">
         <v>661</v>
@@ -16994,28 +16992,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -17023,7 +17021,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -17049,7 +17047,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -17075,7 +17073,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -17101,7 +17099,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -18129,25 +18127,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -18155,7 +18153,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -18175,7 +18173,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -18195,7 +18193,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
@@ -19227,100 +19225,100 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20334,43 +20332,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
@@ -20378,13 +20376,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="E2" s="2">
         <v>20</v>
@@ -20413,13 +20411,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E3" s="2">
         <v>20</v>
@@ -20448,13 +20446,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
@@ -20483,13 +20481,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
@@ -20512,13 +20510,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H6" s="2">
         <v>7</v>
@@ -20541,13 +20539,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H7" s="2">
         <v>6</v>
@@ -20570,13 +20568,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
@@ -20599,13 +20597,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E9" s="2">
         <v>20</v>
@@ -20637,13 +20635,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E10" s="2">
         <v>20</v>
@@ -21687,100 +21685,100 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -21791,10 +21789,10 @@
         <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -21805,24 +21803,24 @@
         <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -22833,25 +22831,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
@@ -22860,12 +22858,12 @@
         <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -22888,7 +22886,7 @@
     </row>
     <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -22911,7 +22909,7 @@
     </row>
     <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -22934,7 +22932,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -22957,7 +22955,7 @@
     </row>
     <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -23995,114 +23993,114 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -25113,33 +25111,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -25157,7 +25155,7 @@
         <v>0.9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -25165,7 +25163,7 @@
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B3" s="2">
         <v>8</v>
@@ -25183,7 +25181,7 @@
         <v>0.85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -25191,7 +25189,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
@@ -25209,7 +25207,7 @@
         <v>0.9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -25217,7 +25215,7 @@
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B5" s="2">
         <v>9</v>
@@ -25235,7 +25233,7 @@
         <v>0.85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -25243,7 +25241,7 @@
     </row>
     <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B6" s="2">
         <v>9</v>
@@ -25261,7 +25259,7 @@
         <v>0.9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -26284,114 +26282,114 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -27410,100 +27408,100 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -28523,184 +28521,184 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -29720,44 +29718,44 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -29765,55 +29763,55 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30833,72 +30831,72 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -31918,44 +31916,44 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -31963,41 +31961,41 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -33017,72 +33015,72 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
